--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:37:35+00:00</t>
+    <t>2025-09-17T08:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T08:51:55+00:00</t>
+    <t>2025-09-23T12:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:31:20+00:00</t>
+    <t>2025-09-23T14:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:36:30+00:00</t>
+    <t>2025-10-23T12:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3998,7 +3998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>192</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>227</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>253</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>262</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>274</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>321</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>329</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>338</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>358</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>388</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>498</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>506</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>515</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>523</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>531</v>
       </c>
@@ -10870,12 +10870,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN77">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:45:10+00:00</t>
+    <t>2025-10-23T14:53:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
